--- a/08-cost-sharing/code/shapley.xlsx
+++ b/08-cost-sharing/code/shapley.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
@@ -1042,7 +1042,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1066,11 +1066,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -1217,17 +1213,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
+    <cellStyle name="Result2" xfId="20"/>
+    <cellStyle name="Heading1" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1293,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1303,7 +1297,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
@@ -1315,7 +1309,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1750,7 +1743,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
@@ -1762,14 +1755,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2574,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2584,7 +2576,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
@@ -2596,14 +2588,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -3083,7 +3074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3093,7 +3084,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
@@ -3105,14 +3096,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -3505,7 +3495,7 @@
       </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="26" t="s">
         <v>33</v>
       </c>
@@ -3610,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3620,7 +3610,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
@@ -3632,14 +3622,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
